--- a/directional_solidification_IKZ/G1_IKZ_NSI_23-Recipe.xlsx
+++ b/directional_solidification_IKZ/G1_IKZ_NSI_23-Recipe.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t xml:space="preserve"># G1_IKZ_NSI_23</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: format these cells as text not as date to avoid misformatting</t>
-  </si>
-  <si>
     <t xml:space="preserve">(VGF-M 006_Si) ???</t>
   </si>
   <si>
@@ -46,7 +43,7 @@
     <t xml:space="preserve"># units</t>
   </si>
   <si>
-    <t xml:space="preserve">hh:mm:ss+00</t>
+    <t xml:space="preserve">yyyy-mm-dd hh:mm:ss+00</t>
   </si>
   <si>
     <t xml:space="preserve">hh:mm:ss</t>
@@ -121,19 +118,22 @@
     <t xml:space="preserve">Marker </t>
   </si>
   <si>
-    <t xml:space="preserve">8:00+01</t>
+    <t xml:space="preserve">2023-10-24 8:00:00+01</t>
   </si>
   <si>
     <t xml:space="preserve">00:00:10</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-10-24 8:00:10+01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aufheizen unter Vak. 1x Gasspülen</t>
   </si>
   <si>
     <t xml:space="preserve">00:45:00</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00+01</t>
+    <t xml:space="preserve">2023-10-24 15:00:00+01</t>
   </si>
   <si>
     <t xml:space="preserve">Aufheizen unter Vakuum</t>
@@ -142,16 +142,13 @@
     <t xml:space="preserve">07:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">12:30+01</t>
+    <t xml:space="preserve">2023-10-24 20:30:00+01</t>
   </si>
   <si>
     <t xml:space="preserve">Aufheizen  </t>
   </si>
   <si>
     <t xml:space="preserve">05:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,15</t>
   </si>
 </sst>
 </file>
@@ -376,13 +373,13 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
@@ -397,20 +394,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -421,27 +414,27 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="Q1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -452,72 +445,72 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,11 +518,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -565,13 +558,17 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="9" t="b">
+      <c r="R4" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -610,15 +607,16 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R5" s="9" t="b">
+      <c r="R5" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -661,15 +659,16 @@
       <c r="Q6" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="R6" s="9" t="b">
+      <c r="R6" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -681,8 +680,8 @@
       <c r="F7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
+      <c r="G7" s="1" t="n">
+        <v>1.15</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1.35</v>
@@ -715,7 +714,8 @@
       <c r="Q7" s="1" t="n">
         <v>11.8</v>
       </c>
-      <c r="R7" s="9" t="b">
+      <c r="R7" s="9" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
